--- a/Data/Entities/OpenNGS/OpenNGS.Rank.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C3E552-E68B-4EFB-B0F9-57A490E7D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F7DDB-90D5-4EAD-ABD5-53912AF9DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="3070" windowWidth="26850" windowHeight="16130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
   <si>
     <t>Package</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>请求成功类型</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -189,24 +186,9 @@
     <t>排名信息</t>
   </si>
   <si>
-    <t>RESULT_TYPE_NONE</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <t>RESULT_TYPE_SUCCESS</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>RESULT_TYPE_FAILED</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
     <t>RANK_DIFFICULT_TYPE_NONE</t>
   </si>
   <si>
@@ -226,10 +208,6 @@
   </si>
   <si>
     <t>请将该字段至于该表的最后位</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>OpenNGS.Rank.Common</t>
@@ -260,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -372,7 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -384,7 +362,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -529,7 +507,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -736,8 +714,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J6" totalsRowShown="0">
+  <autoFilter ref="A1:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="24"/>
@@ -815,23 +793,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="RESULT_TYPE" displayName="RESULT_TYPE" ref="A2:F5" totalsRowShown="0">
-  <autoFilter ref="A2:F5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="RANK_DIFFICULT_TYPE" displayName="RANK_DIFFICULT_TYPE" ref="A9:F13" totalsRowShown="0">
-  <autoFilter ref="A9:F13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="RANK_DIFFICULT_TYPE" displayName="RANK_DIFFICULT_TYPE" ref="A4:F8" totalsRowShown="0">
+  <autoFilter ref="A4:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type"/>
@@ -1094,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1142,159 +1105,133 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>69</v>
+      <c r="A2" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>69</v>
+      <c r="A3" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>15</v>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1346,10 +1283,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -1357,22 +1294,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,35 +1317,35 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1366,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1448,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
@@ -1459,58 +1396,58 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,7 +1468,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1550,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
@@ -1561,40 +1498,40 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,22 +1539,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>5</v>
@@ -1642,57 +1579,57 @@
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,35 +1637,35 @@
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1758,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1772,199 +1709,114 @@
     <col min="6" max="6" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>